--- a/Demo Check Sheets Sem 1 2023 - CS385 - October.xlsx
+++ b/Demo Check Sheets Sem 1 2023 - CS385 - October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0848950\Desktop\CS385\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87640df3a52f65c7/桌面/CS385/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3488FB2-E75B-457A-9470-46AB8CD07183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{B3488FB2-E75B-457A-9470-46AB8CD07183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7917273-8C48-4AD1-8E35-F7E04764F15F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{5F1942D9-F983-48F5-880A-95F4330D1B0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5F1942D9-F983-48F5-880A-95F4330D1B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t xml:space="preserve">Module Code: </t>
   </si>
@@ -189,16 +189,24 @@
   <si>
     <t>Week 4: 27/10/23</t>
   </si>
+  <si>
+    <t>Week 5: 10/11/23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/11/23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,34 +214,41 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1090,7 +1105,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1113,7 +1128,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Master"/>
@@ -1422,7 +1437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1721,23 +1736,23 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="14.4" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1775,15 +1790,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="14.4" thickBot="1">
       <c r="A3" s="90" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="7">
@@ -1802,15 +1817,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="14.4" thickBot="1">
       <c r="A4" s="93" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="9">
@@ -1829,15 +1844,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="9">
@@ -1856,15 +1871,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="9">
@@ -1883,7 +1898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="14.4" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <f t="shared" ref="B7:B22" si="0">SUM(C7,E7,G7)</f>
@@ -1906,9 +1921,11 @@
       <c r="I7" s="17">
         <v>5</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J7" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" thickBot="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <f t="shared" si="0"/>
@@ -1931,7 +1948,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
@@ -1952,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <f t="shared" si="0"/>
@@ -1973,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <f t="shared" si="0"/>
@@ -1994,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <f t="shared" si="0"/>
@@ -2015,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
         <f t="shared" si="0"/>
@@ -2036,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <f t="shared" si="0"/>
@@ -2057,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
         <f t="shared" si="0"/>
@@ -2078,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="8"/>
       <c r="B16" s="9">
         <f t="shared" si="0"/>
@@ -2099,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="9">
         <f t="shared" si="0"/>
@@ -2120,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
         <f t="shared" si="0"/>
@@ -2141,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="8"/>
       <c r="B19" s="9">
         <f t="shared" si="0"/>
@@ -2162,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="8"/>
       <c r="B20" s="9">
         <f t="shared" si="0"/>
@@ -2183,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="8"/>
       <c r="B21" s="9">
         <f t="shared" si="0"/>
@@ -2204,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" ht="14.4" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
@@ -2237,18 +2254,18 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W2"/>
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="5.73046875" style="1" customWidth="1"/>
-    <col min="9" max="32" width="5.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="5.77734375" style="1" customWidth="1"/>
+    <col min="9" max="32" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:32" ht="36" thickBot="1">
       <c r="A1" s="99" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2301,7 @@
       <c r="AE1" s="100"/>
       <c r="AF1" s="101"/>
     </row>
-    <row r="2" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="14.4" thickBot="1">
       <c r="A2" s="27"/>
       <c r="B2" s="4" t="s">
         <v>46</v>
@@ -2322,7 +2339,7 @@
       <c r="Y2" s="97"/>
       <c r="Z2" s="98"/>
       <c r="AA2" s="102" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="103"/>
       <c r="AC2" s="103"/>
@@ -2330,7 +2347,7 @@
       <c r="AE2" s="97"/>
       <c r="AF2" s="98"/>
     </row>
-    <row r="3" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="14.4" thickBot="1">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -2428,13 +2445,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32">
       <c r="A4" s="90" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="9">
         <f>SUM(H4,N4,T4,Z4,AF4)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="51"/>
@@ -2484,19 +2501,21 @@
       <c r="AB4" s="51"/>
       <c r="AC4" s="51"/>
       <c r="AD4" s="51"/>
-      <c r="AE4" s="52"/>
+      <c r="AE4" s="52">
+        <v>2</v>
+      </c>
       <c r="AF4" s="36">
         <f>SUM(AA4:AE4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="93" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="9">
         <f>SUM(H5,N5,T5,Z5,AF5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54"/>
@@ -2546,19 +2565,21 @@
       <c r="AB5" s="54"/>
       <c r="AC5" s="54"/>
       <c r="AD5" s="54"/>
-      <c r="AE5" s="55"/>
+      <c r="AE5" s="55">
+        <v>2</v>
+      </c>
       <c r="AF5" s="9">
         <f t="shared" ref="AF5:AF23" si="4">SUM(AA5:AE5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="94" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="9">
         <f>SUM(H6,N6,T6,Z6,AF6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54"/>
@@ -2608,19 +2629,21 @@
       <c r="AB6" s="54"/>
       <c r="AC6" s="54"/>
       <c r="AD6" s="54"/>
-      <c r="AE6" s="55"/>
+      <c r="AE6" s="55">
+        <v>2</v>
+      </c>
       <c r="AF6" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="94" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" ref="B7:B23" si="5">SUM(H7,N7,T7,Z7,AF7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54"/>
@@ -2670,13 +2693,15 @@
       <c r="AB7" s="54"/>
       <c r="AC7" s="54"/>
       <c r="AD7" s="54"/>
-      <c r="AE7" s="55"/>
+      <c r="AE7" s="55">
+        <v>1</v>
+      </c>
       <c r="AF7" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="31">
         <f>[1]Master!A7</f>
         <v>0</v>
@@ -2731,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="A9" s="31">
         <f>[1]Master!A8</f>
         <v>0</v>
@@ -2786,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="31">
         <f>[1]Master!A9</f>
         <v>0</v>
@@ -2841,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32">
       <c r="A11" s="31">
         <f>[1]Master!A10</f>
         <v>0</v>
@@ -2896,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32">
       <c r="A12" s="31">
         <f>[1]Master!A11</f>
         <v>0</v>
@@ -2951,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32">
       <c r="A13" s="31">
         <f>[1]Master!A12</f>
         <v>0</v>
@@ -3006,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32">
       <c r="A14" s="31">
         <f>[1]Master!A13</f>
         <v>0</v>
@@ -3061,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32">
       <c r="A15" s="31">
         <f>[1]Master!A14</f>
         <v>0</v>
@@ -3116,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32">
       <c r="A16" s="31">
         <f>[1]Master!A15</f>
         <v>0</v>
@@ -3171,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32">
       <c r="A17" s="31">
         <f>[1]Master!A16</f>
         <v>0</v>
@@ -3226,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32">
       <c r="A18" s="31">
         <f>[1]Master!A17</f>
         <v>0</v>
@@ -3281,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32">
       <c r="A19" s="31">
         <f>[1]Master!A18</f>
         <v>0</v>
@@ -3336,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32">
       <c r="A20" s="31">
         <f>[1]Master!A19</f>
         <v>0</v>
@@ -3391,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32">
       <c r="A21" s="31">
         <f>[1]Master!A20</f>
         <v>0</v>
@@ -3446,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32">
       <c r="A22" s="31">
         <f>[1]Master!A21</f>
         <v>0</v>
@@ -3501,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:32" ht="14.4" thickBot="1">
       <c r="A23" s="32">
         <f>[1]Master!A22</f>
         <v>0</v>
@@ -3570,7 +3595,9 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3582,9 +3609,9 @@
       <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:32" ht="36" thickBot="1">
       <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
@@ -3620,7 +3647,7 @@
       <c r="AE1" s="107"/>
       <c r="AF1" s="108"/>
     </row>
-    <row r="2" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="14.4" thickBot="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63" t="s">
         <v>30</v>
@@ -3666,7 +3693,7 @@
       <c r="AE2" s="104"/>
       <c r="AF2" s="105"/>
     </row>
-    <row r="3" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="14.4" thickBot="1">
       <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
@@ -3764,7 +3791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32">
       <c r="A4" s="70"/>
       <c r="B4" s="71">
         <f>SUM(H4,N4,T4,Z4,AF4)</f>
@@ -3816,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32">
       <c r="A5" s="72"/>
       <c r="B5" s="73">
         <f t="shared" ref="B5:B23" si="0">SUM(H5,N5,T5,Z5,AF5)</f>
@@ -3868,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32">
       <c r="A6" s="72"/>
       <c r="B6" s="73">
         <f t="shared" si="0"/>
@@ -3920,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32">
       <c r="A7" s="72"/>
       <c r="B7" s="73">
         <f t="shared" si="0"/>
@@ -3972,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32">
       <c r="A8" s="72">
         <f>[1]Master!A7</f>
         <v>0</v>
@@ -4027,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="A9" s="72">
         <f>[1]Master!A8</f>
         <v>0</v>
@@ -4082,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="72">
         <f>[1]Master!A9</f>
         <v>0</v>
@@ -4137,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32">
       <c r="A11" s="72">
         <f>[1]Master!A10</f>
         <v>0</v>
@@ -4192,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32">
       <c r="A12" s="72">
         <f>[1]Master!A11</f>
         <v>0</v>
@@ -4247,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32">
       <c r="A13" s="72">
         <f>[1]Master!A12</f>
         <v>0</v>
@@ -4302,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32">
       <c r="A14" s="72">
         <f>[1]Master!A13</f>
         <v>0</v>
@@ -4357,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32">
       <c r="A15" s="72">
         <f>[1]Master!A14</f>
         <v>0</v>
@@ -4412,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32">
       <c r="A16" s="72">
         <f>[1]Master!A15</f>
         <v>0</v>
@@ -4467,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32">
       <c r="A17" s="72">
         <f>[1]Master!A16</f>
         <v>0</v>
@@ -4522,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32">
       <c r="A18" s="72">
         <f>[1]Master!A17</f>
         <v>0</v>
@@ -4577,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32">
       <c r="A19" s="72">
         <f>[1]Master!A18</f>
         <v>0</v>
@@ -4632,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32">
       <c r="A20" s="72">
         <f>[1]Master!A19</f>
         <v>0</v>
@@ -4687,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32">
       <c r="A21" s="72">
         <f>[1]Master!A20</f>
         <v>0</v>
@@ -4742,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32">
       <c r="A22" s="72">
         <f>[1]Master!A21</f>
         <v>0</v>
@@ -4797,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:32" ht="14.4" thickBot="1">
       <c r="A23" s="74">
         <f>[1]Master!A22</f>
         <v>0</v>
@@ -4866,6 +4893,7 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4878,9 +4906,9 @@
       <selection activeCell="AA4" sqref="AA4:AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:32" ht="36" thickBot="1">
       <c r="A1" s="111" t="s">
         <v>18</v>
       </c>
@@ -4916,7 +4944,7 @@
       <c r="AE1" s="112"/>
       <c r="AF1" s="113"/>
     </row>
-    <row r="2" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="14.4" thickBot="1">
       <c r="A2" s="27"/>
       <c r="B2" s="4" t="s">
         <v>30</v>
@@ -4962,7 +4990,7 @@
       <c r="AE2" s="97"/>
       <c r="AF2" s="98"/>
     </row>
-    <row r="3" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="14.4" thickBot="1">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -5060,7 +5088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32">
       <c r="A4" s="30"/>
       <c r="B4" s="7">
         <f>SUM(H4,N4,T4,Z4,AF4)</f>
@@ -5112,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32">
       <c r="A5" s="31"/>
       <c r="B5" s="9">
         <f t="shared" ref="B5:B23" si="0">SUM(H5,N5,T5,Z5,AF5)</f>
@@ -5164,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32">
       <c r="A6" s="31"/>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -5216,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32">
       <c r="A7" s="31"/>
       <c r="B7" s="9">
         <f t="shared" si="0"/>
@@ -5268,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32">
       <c r="A8" s="31">
         <f>[1]Master!A7</f>
         <v>0</v>
@@ -5323,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="A9" s="31">
         <f>[1]Master!A8</f>
         <v>0</v>
@@ -5378,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="31">
         <f>[1]Master!A9</f>
         <v>0</v>
@@ -5433,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32">
       <c r="A11" s="31">
         <f>[1]Master!A10</f>
         <v>0</v>
@@ -5488,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32">
       <c r="A12" s="31">
         <f>[1]Master!A11</f>
         <v>0</v>
@@ -5543,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32">
       <c r="A13" s="31">
         <f>[1]Master!A12</f>
         <v>0</v>
@@ -5598,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32">
       <c r="A14" s="31">
         <f>[1]Master!A13</f>
         <v>0</v>
@@ -5653,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32">
       <c r="A15" s="31">
         <f>[1]Master!A14</f>
         <v>0</v>
@@ -5708,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32">
       <c r="A16" s="31">
         <f>[1]Master!A15</f>
         <v>0</v>
@@ -5763,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32">
       <c r="A17" s="31">
         <f>[1]Master!A16</f>
         <v>0</v>
@@ -5818,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32">
       <c r="A18" s="31">
         <f>[1]Master!A17</f>
         <v>0</v>
@@ -5873,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32">
       <c r="A19" s="31">
         <f>[1]Master!A18</f>
         <v>0</v>
@@ -5928,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32">
       <c r="A20" s="31">
         <f>[1]Master!A19</f>
         <v>0</v>
@@ -5983,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32">
       <c r="A21" s="31">
         <f>[1]Master!A20</f>
         <v>0</v>
@@ -6038,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32">
       <c r="A22" s="31">
         <f>[1]Master!A21</f>
         <v>0</v>
@@ -6093,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:32" ht="14.4" thickBot="1">
       <c r="A23" s="32">
         <f>[1]Master!A22</f>
         <v>0</v>
@@ -6162,6 +6190,7 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6174,14 +6203,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6195,7 +6224,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -6206,7 +6235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6217,7 +6246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6226,6 +6255,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
